--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688212.066723207</v>
+        <v>1792391.701174279</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>211.3954436932308</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>162.9746145775476</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>78.60026509139468</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>280.2364984178466</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>196.1623266599244</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>70.68108523238431</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>45.51125238799587</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>227.7172236952964</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>302.7086927409722</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>127.210865826857</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>109.1425972588402</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2193560244681</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.3196045412455</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>31.26260713376574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>220.864501724972</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>46.86766651429496</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>124.0270735093611</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.4262124629297</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>105.3305008047039</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>148.1185786361436</v>
       </c>
       <c r="T34" t="n">
-        <v>156.8624097380501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.50276072357107</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>171.6971896214536</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>246.4755938422912</v>
+        <v>147.3642529779079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.833068744076</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2795.806654315204</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.037999045089</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.572240784009</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.432908808198</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2192.918367052238</v>
+        <v>2043.61916645042</v>
       </c>
       <c r="C4" t="n">
-        <v>2023.982184124332</v>
+        <v>1874.682983522513</v>
       </c>
       <c r="D4" t="n">
-        <v>2023.982184124332</v>
+        <v>1874.682983522513</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>1726.76988994012</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>1726.76988994012</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>2964.695273030499</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>2675.592406156143</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V4" t="n">
-        <v>2420.907917950256</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W4" t="n">
-        <v>2420.907917950256</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X4" t="n">
-        <v>2192.918367052238</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y4" t="n">
-        <v>2192.918367052238</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2269.968910186251</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1901.00639324584</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.640912107148</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2656.568750250373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>402.9356658273861</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C7" t="n">
-        <v>402.9356658273861</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1881.323586080416</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1689.637701907242</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1689.637701907242</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1400.534835032886</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1400.534835032886</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1111.117664995925</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>883.128114097908</v>
       </c>
       <c r="Y7" t="n">
-        <v>584.5841306576258</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577776</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>1033.244753510244</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.4521743667135</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>444.0993955623734</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="14">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>3266.400361191265</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>3097.464178263358</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>2947.347538851023</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>2799.43444526863</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>2652.544497770719</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>4186.248126100013</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3896.830956063052</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>3668.841405165035</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>3448.048826021505</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718132</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650335</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2321.683211348583</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2102.081746371523</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1813.006519715721</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1558.322031509834</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2341.482060890433</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2341.482060890433</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2052.406834234631</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.388512467613</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2297.348357685166</v>
       </c>
       <c r="T34" t="n">
-        <v>2105.661370711882</v>
+        <v>2077.746892708107</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.58614405608</v>
+        <v>1788.671666052305</v>
       </c>
       <c r="V34" t="n">
-        <v>1561.901655850193</v>
+        <v>1533.987177846418</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,13 +7025,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367897</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>336.3048548543966</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>336.3048548543966</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7448,7 +7450,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.30478226780073</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2650488108493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>149.7636788678789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>75.37549921168741</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>118.6564717779739</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>56.99921249228345</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>76.60007353871485</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>32.90770736550095</v>
       </c>
       <c r="T34" t="n">
-        <v>60.54304058923813</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>147.0213775686978</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>80.44045370237441</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.70888054695297</v>
+        <v>138.8202214113362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319398</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319405</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319403</v>
-      </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26433,13 +26435,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137883</v>
+        <v>-975269.3345137885</v>
       </c>
       <c r="C6" t="n">
         <v>353475.4112138043</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138043</v>
+        <v>353475.4112138042</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.1550476493</v>
+        <v>104682.155047649</v>
       </c>
       <c r="F6" t="n">
+        <v>430094.6168550044</v>
+      </c>
+      <c r="G6" t="n">
         <v>430094.616855004</v>
-      </c>
-      <c r="G6" t="n">
-        <v>430094.6168550044</v>
       </c>
       <c r="H6" t="n">
         <v>430094.616855004</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.616855004</v>
+        <v>430094.6168550042</v>
       </c>
       <c r="J6" t="n">
         <v>212563.4144577268</v>
       </c>
       <c r="K6" t="n">
+        <v>430094.616855004</v>
+      </c>
+      <c r="L6" t="n">
+        <v>430094.6168550045</v>
+      </c>
+      <c r="M6" t="n">
+        <v>345039.5889194922</v>
+      </c>
+      <c r="N6" t="n">
         <v>430094.6168550043</v>
       </c>
-      <c r="L6" t="n">
-        <v>430094.6168550046</v>
-      </c>
-      <c r="M6" t="n">
-        <v>345039.5889194926</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>430094.6168550042</v>
       </c>
-      <c r="O6" t="n">
-        <v>430094.6168550045</v>
-      </c>
       <c r="P6" t="n">
-        <v>430094.6168550043</v>
+        <v>430094.616855004</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26810,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>116.3568147769041</v>
+        <v>310.4011377631391</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.051193681480612</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9486841847745</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>74.44654320283638</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>131.5899318102105</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>77.93438778582805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>43.42090028205146</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>100.0350347748385</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>83.52924591508139</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>98.49878956218015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>109.4420560932546</v>
       </c>
     </row>
     <row r="11">
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>514.8598010172136</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>575.5951359912044</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>446.012731199064</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>376.3054212373395</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>433.4611020691861</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770457</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792391.701174279</v>
+        <v>1788379.091160286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283176</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483565</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>17.35112070699578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.9746145775476</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.4125471331595</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>280.2364984178466</v>
+        <v>283.6826708844479</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>45.51125238799587</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>86.87333351823632</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50.73003670622381</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.7086927409722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>109.1425972588402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634834</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>48.13676080754466</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>125.2193560244681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7944235414535</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>246.4755938422903</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>220.864501724972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.14863908058143</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>159.6155901915581</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>124.0270735093611</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>105.3305008047039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>80.6784213964369</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>148.1185786361436</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>27.77749086859478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>171.6971896214536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.3642529779079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2043.61916645042</v>
+        <v>2392.59927678083</v>
       </c>
       <c r="C4" t="n">
-        <v>1874.682983522513</v>
+        <v>2223.663093852923</v>
       </c>
       <c r="D4" t="n">
-        <v>1874.682983522513</v>
+        <v>2073.546454440587</v>
       </c>
       <c r="E4" t="n">
-        <v>1726.76988994012</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="F4" t="n">
-        <v>1726.76988994012</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134517</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>3277.714359858503</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>3277.714359858503</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734815</v>
+        <v>3277.714359858503</v>
       </c>
       <c r="V4" t="n">
-        <v>2781.818466528928</v>
+        <v>3023.029871652617</v>
       </c>
       <c r="W4" t="n">
-        <v>2492.401296491968</v>
+        <v>3023.029871652617</v>
       </c>
       <c r="X4" t="n">
-        <v>2264.41174559395</v>
+        <v>2795.0403207546</v>
       </c>
       <c r="Y4" t="n">
-        <v>2043.61916645042</v>
+        <v>2574.24774161107</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2269.968910186251</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C5" t="n">
-        <v>1901.00639324584</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250373</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2656.568750250373</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.6870701241381</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1881.323586080416</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1689.637701907242</v>
+        <v>1749.713248908408</v>
       </c>
       <c r="T7" t="n">
-        <v>1689.637701907242</v>
+        <v>1527.946633477934</v>
       </c>
       <c r="U7" t="n">
-        <v>1400.534835032886</v>
+        <v>1527.946633477934</v>
       </c>
       <c r="V7" t="n">
-        <v>1400.534835032886</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>1111.117664995925</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>883.128114097908</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.3355349543779</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.542164430393</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.507193008249</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828447</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.95525898292</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>889.0190760550126</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>738.9024366426769</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>590.9893430602838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>444.0993955623734</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956689</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.603723813159</v>
+        <v>923.4916164683297</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>1090.767110287002</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>921.8309273590953</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>1272.415575117242</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3266.400361191265</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>3097.464178263358</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>2947.347538851023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>2799.43444526863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2652.544497770719</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4440.9326143059</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V22" t="n">
-        <v>4186.248126100013</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W22" t="n">
-        <v>3896.830956063052</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X22" t="n">
-        <v>3668.841405165035</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>3448.048826021505</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2321.683211348583</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.081746371523</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1813.006519715721</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1558.322031509834</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W28" t="n">
-        <v>1268.904861472874</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.3100179938677</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2297.348357685166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.746892708107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.570007809457</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.58045691144</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7025,13 +7025,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753331</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.608299724743</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.923811518856</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.506641481895</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.517090583878</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>129.5921236250085</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>131.6952193743927</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.30478226780073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631855607</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.821049476758816</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.70888054695388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>75.37549921168741</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>126.5688841976861</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>56.99921249228345</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0.587414922128616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>32.90770736550095</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>80.44045370237441</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320155</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26325,34 +26325,34 @@
         <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26447,16 +26447,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137885</v>
+        <v>-975269.3345137883</v>
       </c>
       <c r="C6" t="n">
-        <v>353475.4112138043</v>
+        <v>353475.4112138038</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138042</v>
+        <v>353475.4112138039</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.155047649</v>
+        <v>104334.7757932915</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.6168550044</v>
+        <v>429747.2376006474</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006478</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006474</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550042</v>
+        <v>429747.2376006474</v>
       </c>
       <c r="J6" t="n">
-        <v>212563.4144577268</v>
+        <v>212216.0352033704</v>
       </c>
       <c r="K6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006471</v>
       </c>
       <c r="L6" t="n">
-        <v>430094.6168550045</v>
+        <v>429747.2376006473</v>
       </c>
       <c r="M6" t="n">
-        <v>345039.5889194922</v>
+        <v>344692.2096651353</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.6168550043</v>
+        <v>429747.237600647</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.6168550042</v>
+        <v>429747.2376006473</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006471</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512407</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>310.4011377631391</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.051193681480612</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>142.3564781982824</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>74.44654320283638</v>
+        <v>71.00037073623503</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>43.42090028205146</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>102.8956918132056</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>303.9530049144591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.52924591508139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>109.4420560932546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.426533627750663e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-4.705712004706465e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510257</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366955</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1788379.091160286</v>
+        <v>1790139.621463071</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483565</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77.42639794035675</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.4125471331595</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>24.01006515217659</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>283.6826708844479</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>86.87333351823632</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>50.73003670622381</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>40.12741312164625</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.13676080754466</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>140.7944235414535</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>184.5018925095677</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>134.3542165280278</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>159.6155901915581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105415</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.6784213964369</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>115.8627380890762</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2392.59927678083</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>2223.663093852923</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>2073.546454440587</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E4" t="n">
-        <v>1925.633360858194</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360284</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
         <v>1464.823389952861</v>
@@ -4497,13 +4497,13 @@
         <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
         <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
         <v>3247.995525456655</v>
@@ -4515,25 +4515,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>3277.714359858503</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>3277.714359858503</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U4" t="n">
-        <v>3277.714359858503</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V4" t="n">
-        <v>3023.029871652617</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W4" t="n">
-        <v>3023.029871652617</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="X4" t="n">
-        <v>2795.0403207546</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="Y4" t="n">
-        <v>2574.24774161107</v>
+        <v>2246.382089998688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535336</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535336</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1749.713248908408</v>
+        <v>1761.381342756611</v>
       </c>
       <c r="T7" t="n">
-        <v>1527.946633477934</v>
+        <v>1539.614727326137</v>
       </c>
       <c r="U7" t="n">
-        <v>1527.946633477934</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386632</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.181684446221</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589159</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828447</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.28419561186</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683297</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.767110287002</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>921.8309273590953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258107</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.82229605222</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117242</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.415575117242</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6244,16 +6244,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367897</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.2179484367897</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.2179484367897</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.0218491516696</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.3100179938677</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>197.0043242297717</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>391.8463960427007</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.6952193743927</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631855607</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.821049476758816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>101.6825818796764</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.05123379926047</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>126.5688841976861</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.44497470121469</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0.587414922128616</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880491.4179320155</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137883</v>
+        <v>-975269.3345137886</v>
       </c>
       <c r="C6" t="n">
-        <v>353475.4112138038</v>
+        <v>353475.4112138041</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138039</v>
+        <v>353475.4112138043</v>
       </c>
       <c r="E6" t="n">
-        <v>104334.7757932915</v>
+        <v>104647.4171222135</v>
       </c>
       <c r="F6" t="n">
-        <v>429747.2376006474</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="G6" t="n">
-        <v>429747.2376006478</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="H6" t="n">
-        <v>429747.2376006474</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="I6" t="n">
-        <v>429747.2376006474</v>
+        <v>430059.8789295681</v>
       </c>
       <c r="J6" t="n">
-        <v>212216.0352033704</v>
+        <v>212528.676532291</v>
       </c>
       <c r="K6" t="n">
-        <v>429747.2376006471</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="L6" t="n">
-        <v>429747.2376006473</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="M6" t="n">
-        <v>344692.2096651353</v>
+        <v>345004.8509940563</v>
       </c>
       <c r="N6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="O6" t="n">
-        <v>429747.2376006473</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="P6" t="n">
-        <v>429747.2376006471</v>
+        <v>430059.8789295686</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512407</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>142.3564781982824</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>201.6995902368606</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.00037073623503</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>102.8956918132056</v>
+        <v>25.51495205287856</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>303.9530049144591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.06034866652959</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.842170943040401e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.426533627750663e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-4.705712004706465e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510257</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366955</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
